--- a/Listado_OT.xlsx
+++ b/Listado_OT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>OT NRO</t>
   </si>
@@ -49,6 +49,45 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>12344565</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>54767</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>NO_FACTURADO</t>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>obra nro 1</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
     <t>86869</t>
   </si>
   <si>
@@ -85,6 +124,9 @@
     <t>cambio de portony rejas</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>12323</t>
   </si>
   <si>
@@ -133,12 +175,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>CONTADO</t>
-  </si>
-  <si>
-    <t>NO_FACTURADO</t>
-  </si>
-  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
@@ -175,9 +211,6 @@
     <t>14/09/2018</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>luis oviedo</t>
   </si>
   <si>
@@ -214,9 +247,6 @@
     <t>04/10/2018</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>345</t>
   </si>
   <si>
@@ -224,9 +254,6 @@
   </si>
   <si>
     <t>Columnas Metalicas 2_</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>08/09/2018</t>
@@ -357,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,19 +427,22 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -438,575 +468,664 @@
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>56</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
